--- a/biology/Histoire de la zoologie et de la botanique/Ferdinand_von_Ritgen/Ferdinand_von_Ritgen.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Ferdinand_von_Ritgen/Ferdinand_von_Ritgen.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ferdinand August Maria Franz von Ritgen est un médecin et un naturaliste prussien, né le 11 octobre 1787 à Wulfen et mort le 14 avril 1867 à Giessen.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Après ses études de chirurgie, il obtient en 1809 l’autorisation d’exercer la médecine interne. Il exerce à Meschede et à Stadtbergen avant de devenir professeur de chirurgie à l’université de Giessen où il enseigne notamment les techniques de l’accouchement. Il fonde en 1816 une école de sages-femmes.
 Il étudie également les vertébrés et publie des ouvrages sur les reptiles, les mammifères et les oiseaux. Il fait paraître en 1826 : Versuchte Herstellung einiger Becken urweltlicher Thiere et Versuch einer natürlichen Eintheilung der Vögel. En 1828, il propose une nouvelle classification des reptiles qu’André Marie Constant Duméril (1874-1860) juge durement : « Dans ce système l'auteur a voulu réunir trop de particularités distinctives sous un même nom ; ce qui rend sa méthode tout à fait inadmissible. » (Erpétologie générale, 1834).
@@ -544,7 +558,9 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Handbuch der Geburtshülfe, 1824.
 Versuchte Herstellung einiger Becken urweltlicher Thiere, 1826.
